--- a/data_raw/ram_holzingerswineford.xlsx
+++ b/data_raw/ram_holzingerswineford.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" state="visible" r:id="rId2"/>
@@ -240,7 +240,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K26" activeCellId="0" sqref="K26"/>
+      <selection pane="topLeft" activeCell="M8" activeCellId="0" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -800,8 +800,8 @@
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L36" activeCellId="0" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1365,7 +1365,7 @@
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
     </sheetView>
   </sheetViews>
